--- a/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Serie</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -671,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA74"/>
+  <dimension ref="A1:AA75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6741,7 +6744,7 @@
         <v>99</v>
       </c>
       <c r="B74">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C74">
         <v>2529</v>
@@ -6750,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F74">
-        <v>-2042</v>
+        <v>-2086</v>
       </c>
       <c r="G74">
         <v>232</v>
@@ -6768,10 +6771,10 @@
         <v>6</v>
       </c>
       <c r="K74">
-        <v>-647</v>
+        <v>-654</v>
       </c>
       <c r="L74">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M74">
         <v>379</v>
@@ -6789,34 +6792,117 @@
         <v>-474</v>
       </c>
       <c r="R74">
-        <v>-1152</v>
+        <v>-1190</v>
       </c>
       <c r="S74">
         <v>-18</v>
       </c>
       <c r="T74">
-        <v>-1199</v>
+        <v>-1229</v>
       </c>
       <c r="U74">
         <v>42</v>
       </c>
       <c r="V74">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="W74">
-        <v>5978</v>
+        <v>11537</v>
       </c>
       <c r="X74">
-        <v>3877</v>
+        <v>9720</v>
       </c>
       <c r="Y74">
-        <v>703</v>
+        <v>612</v>
       </c>
       <c r="Z74">
         <v>-329</v>
       </c>
       <c r="AA74">
-        <v>1727</v>
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75">
+        <v>4505</v>
+      </c>
+      <c r="C75">
+        <v>4530</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>-24</v>
+      </c>
+      <c r="F75">
+        <v>-2783</v>
+      </c>
+      <c r="G75">
+        <v>-249</v>
+      </c>
+      <c r="H75">
+        <v>-248</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>-1</v>
+      </c>
+      <c r="K75">
+        <v>-2229</v>
+      </c>
+      <c r="L75">
+        <v>253</v>
+      </c>
+      <c r="M75">
+        <v>-133</v>
+      </c>
+      <c r="N75">
+        <v>-2011</v>
+      </c>
+      <c r="O75">
+        <v>-337</v>
+      </c>
+      <c r="P75">
+        <v>-493</v>
+      </c>
+      <c r="Q75">
+        <v>-493</v>
+      </c>
+      <c r="R75">
+        <v>188</v>
+      </c>
+      <c r="S75">
+        <v>-10</v>
+      </c>
+      <c r="T75">
+        <v>179</v>
+      </c>
+      <c r="U75">
+        <v>21</v>
+      </c>
+      <c r="V75">
+        <v>-3</v>
+      </c>
+      <c r="W75">
+        <v>5563</v>
+      </c>
+      <c r="X75">
+        <v>4451</v>
+      </c>
+      <c r="Y75">
+        <v>2188</v>
+      </c>
+      <c r="Z75">
+        <v>-291</v>
+      </c>
+      <c r="AA75">
+        <v>-785</v>
       </c>
     </row>
   </sheetData>

--- a/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
+++ b/8/1/2/4/Pasivos - Flujos 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Serie</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA75"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6905,6 +6908,89 @@
         <v>-785</v>
       </c>
     </row>
+    <row r="76" spans="1:27">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76">
+        <v>9225</v>
+      </c>
+      <c r="C76">
+        <v>9236</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>-11</v>
+      </c>
+      <c r="F76">
+        <v>3398</v>
+      </c>
+      <c r="G76">
+        <v>2377</v>
+      </c>
+      <c r="H76">
+        <v>-1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2377</v>
+      </c>
+      <c r="K76">
+        <v>1476</v>
+      </c>
+      <c r="L76">
+        <v>174</v>
+      </c>
+      <c r="M76">
+        <v>1162</v>
+      </c>
+      <c r="N76">
+        <v>-1984</v>
+      </c>
+      <c r="O76">
+        <v>2124</v>
+      </c>
+      <c r="P76">
+        <v>-428</v>
+      </c>
+      <c r="Q76">
+        <v>-428</v>
+      </c>
+      <c r="R76">
+        <v>-27</v>
+      </c>
+      <c r="S76">
+        <v>-18</v>
+      </c>
+      <c r="T76">
+        <v>-450</v>
+      </c>
+      <c r="U76">
+        <v>366</v>
+      </c>
+      <c r="V76">
+        <v>75</v>
+      </c>
+      <c r="W76">
+        <v>9035</v>
+      </c>
+      <c r="X76">
+        <v>1935</v>
+      </c>
+      <c r="Y76">
+        <v>5584</v>
+      </c>
+      <c r="Z76">
+        <v>-205</v>
+      </c>
+      <c r="AA76">
+        <v>1720</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
